--- a/SFML Template Bin/tables/card_table.xlsx
+++ b/SFML Template Bin/tables/card_table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,11 @@
   </si>
   <si>
     <t>MAXFOOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aab
+asdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,9 +163,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -445,7 +453,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -472,7 +480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -481,6 +489,9 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
